--- a/pruebas/Caso_de_prueba_3_Consultar_tablon_de_anuncios.xlsx
+++ b/pruebas/Caso_de_prueba_3_Consultar_tablon_de_anuncios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\`\Desktop\MicroBlog\pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANDRES\Documents\GitHub\ingSoft2017\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>Código</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Resultado Obtenido</t>
   </si>
   <si>
-    <t>Comprobar que el usuario pueda Visualizar el Tablón de Anuncios correctamentes</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Publicar mensaje en tablon de anuncios</t>
   </si>
   <si>
-    <t xml:space="preserve">Comprobar  que cumpla con las condiciones necesarias el mensaje </t>
-  </si>
-  <si>
     <t>Mensaje de mas de 140 caracteres</t>
   </si>
   <si>
@@ -159,15 +153,9 @@
     <t>Comprobar si los campos son correctamente modificados</t>
   </si>
   <si>
-    <t>Formulario con el mensaje origianl</t>
-  </si>
-  <si>
     <t>Mensaje:"hola mundo modificado"</t>
   </si>
   <si>
-    <t>Editar el mensaje selecionado en tablón de anuncio</t>
-  </si>
-  <si>
     <t>Publicar mensaje en tablón de anuncios de destino</t>
   </si>
   <si>
@@ -183,19 +171,43 @@
     <t>3- Presionar botón borrar mensaje</t>
   </si>
   <si>
-    <t>Mensaje</t>
-  </si>
-  <si>
-    <t>Mensaje eliminado</t>
-  </si>
-  <si>
-    <t>Borrar el mensaje selecionado en tablón de anuncio</t>
+    <t>Comprobar  que el mensaje tenga el formato adecuado</t>
+  </si>
+  <si>
+    <t>Comprobar que el usuario pueda visualizar el Tablón de Anuncios correctamentes</t>
+  </si>
+  <si>
+    <t>Formulario con el mensaje original</t>
+  </si>
+  <si>
+    <t>Mensaje selecionado modificado en tablón de anuncio</t>
+  </si>
+  <si>
+    <t>Mensaje selecionado</t>
+  </si>
+  <si>
+    <t>Clickear botón eliminar</t>
+  </si>
+  <si>
+    <t>El mensaje selecionado no existe más en tablón de anuncio</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>Mensaje selecionado ya eliminado</t>
+  </si>
+  <si>
+    <t>Clickear link al mensaje selecionado</t>
+  </si>
+  <si>
+    <t>Muestra en pantalla "Este mensaje fue eliminado"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,12 +315,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -327,6 +333,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,62 +644,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
+    <col min="1" max="1" width="10.625"/>
     <col min="2" max="2" width="51"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="1025" width="10.5703125"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="35.75" customWidth="1"/>
+    <col min="6" max="6" width="28.25" customWidth="1"/>
+    <col min="7" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -719,185 +731,185 @@
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="B17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="B18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -906,273 +918,306 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="13" t="s">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B52" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C52" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D52" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E52" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F52" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="13" t="s">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="B53" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="12"/>
+      <c r="F53" s="10"/>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
     <mergeCell ref="A48:F48"/>
     <mergeCell ref="A49:F49"/>
     <mergeCell ref="A50:F50"/>
@@ -1181,21 +1226,6 @@
     <mergeCell ref="A39:F39"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
